--- a/IELT-Plan.xlsx
+++ b/IELT-Plan.xlsx
@@ -257,7 +257,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -397,119 +397,154 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -815,10 +850,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q23"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:H3"/>
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -831,519 +866,549 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3" t="s">
+      <c r="D1" s="35"/>
+      <c r="E1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3" t="s">
+      <c r="F1" s="35"/>
+      <c r="G1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="21" t="s">
+      <c r="H1" s="35"/>
+      <c r="I1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="19" t="s">
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19" t="s">
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
     </row>
     <row r="3" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="4" t="s">
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="11" t="s">
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="12"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="11" t="s">
+      <c r="J3" s="4"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="13"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="5"/>
     </row>
     <row r="4" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="6" t="s">
+      <c r="A4" s="34"/>
+      <c r="B4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="4" t="s">
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="15"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="8"/>
     </row>
     <row r="5" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="6" t="s">
+      <c r="A5" s="34"/>
+      <c r="B5" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="4" t="s">
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="15"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="8"/>
     </row>
     <row r="6" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="15"/>
+      <c r="A6" s="34"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="8"/>
     </row>
     <row r="7" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="15"/>
+      <c r="A7" s="34"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="8"/>
     </row>
     <row r="8" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="15"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="8"/>
     </row>
     <row r="9" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="15"/>
+      <c r="A9" s="33"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="8"/>
     </row>
     <row r="10" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="15"/>
+      <c r="A10" s="33"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="8"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="15"/>
+      <c r="A11" s="33"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="8"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="18"/>
+      <c r="A12" s="33"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="11"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="6" t="s">
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="M13" s="7"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="6" t="s">
+      <c r="M13" s="22"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="8"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="28"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="6" t="s">
+      <c r="A14" s="33"/>
+      <c r="B14" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="6" t="s">
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="M14" s="7"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="6" t="s">
+      <c r="M14" s="22"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="8"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="28"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="6" t="s">
+      <c r="A15" s="33"/>
+      <c r="B15" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="25" t="s">
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="J15" s="26"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="6" t="s">
+      <c r="J15" s="30"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="M15" s="7"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="6" t="s">
+      <c r="M15" s="22"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="8"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="28"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="8"/>
+      <c r="A16" s="33"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="28"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="8"/>
+      <c r="A17" s="33"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="28"/>
     </row>
     <row r="18" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="28" t="s">
+      <c r="B18" s="21"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="J18" s="29"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="11" t="s">
+      <c r="J18" s="13"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="M18" s="12"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="8"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="28"/>
     </row>
     <row r="19" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="33"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="8"/>
+      <c r="A19" s="33"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="22"/>
+      <c r="Q19" s="28"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="33"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="8"/>
+      <c r="A20" s="33"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="22"/>
+      <c r="Q20" s="28"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="33"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="8"/>
+      <c r="A21" s="33"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="22"/>
+      <c r="Q21" s="28"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="36"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="18"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="8"/>
+      <c r="A22" s="33"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="22"/>
+      <c r="Q22" s="28"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="I23" s="24" t="s">
+      <c r="A23" s="36"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="37"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="36"/>
+      <c r="N23" s="36"/>
+      <c r="O23" s="36"/>
+      <c r="P23" s="36"/>
+      <c r="Q23" s="36"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="38"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="38"/>
+      <c r="M24" s="38"/>
+      <c r="N24" s="38"/>
+      <c r="O24" s="38"/>
+      <c r="P24" s="38"/>
+      <c r="Q24" s="38"/>
     </row>
   </sheetData>
-  <mergeCells count="67">
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="L18:N22"/>
-    <mergeCell ref="I18:K22"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="I1:K2"/>
-    <mergeCell ref="L1:N2"/>
-    <mergeCell ref="O1:Q2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
+  <mergeCells count="70">
+    <mergeCell ref="A23:H24"/>
+    <mergeCell ref="I23:K24"/>
+    <mergeCell ref="L23:N24"/>
+    <mergeCell ref="O23:Q24"/>
+    <mergeCell ref="O13:Q13"/>
+    <mergeCell ref="O3:Q12"/>
+    <mergeCell ref="I3:K12"/>
+    <mergeCell ref="L3:N12"/>
+    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="O16:Q16"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="O17:Q17"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="O14:Q14"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="O15:Q15"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="O20:Q20"/>
     <mergeCell ref="O21:Q21"/>
@@ -1360,32 +1425,38 @@
     <mergeCell ref="B20:H20"/>
     <mergeCell ref="B13:H13"/>
     <mergeCell ref="B14:H14"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="L16:N16"/>
-    <mergeCell ref="O16:Q16"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="O17:Q17"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="O14:Q14"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="L15:N15"/>
-    <mergeCell ref="O15:Q15"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="O13:Q13"/>
-    <mergeCell ref="O3:Q12"/>
-    <mergeCell ref="I3:K12"/>
-    <mergeCell ref="L3:N12"/>
-    <mergeCell ref="A18:A22"/>
-    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="I1:K2"/>
+    <mergeCell ref="L1:N2"/>
+    <mergeCell ref="O1:Q2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
     <mergeCell ref="G1:H2"/>
     <mergeCell ref="E1:F2"/>
     <mergeCell ref="C1:D2"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="L18:N22"/>
+    <mergeCell ref="I18:K22"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="L13:N13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
